--- a/bulkChanges/rules_update.xlsx
+++ b/bulkChanges/rules_update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="150">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -46,9 +46,6 @@
     <t>ZAK Gimnazjalna II</t>
   </si>
   <si>
-    <t>ZAK Dom Hrube 5H 1</t>
-  </si>
-  <si>
     <t>ZAK Dom Zoniówka PREMIUM</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>ZAK Orkana 3</t>
   </si>
   <si>
-    <t>ZAK Dom Hrube 5H 2</t>
-  </si>
-  <si>
     <t>ZAK DrogadoWal 30/2</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t>ZAK Krzeptowsk. V</t>
   </si>
   <si>
-    <t>ZAK Dom Hrube 5G 2</t>
-  </si>
-  <si>
     <t>ZAK Tetmajera II</t>
   </si>
   <si>
@@ -286,9 +277,6 @@
     <t>ZAK Skibówki II</t>
   </si>
   <si>
-    <t>ZAK Dom Hrube 5G 1</t>
-  </si>
-  <si>
     <t>ZAK Zamoyskiego</t>
   </si>
   <si>
@@ -427,27 +415,6 @@
     <t>ZAK Dom Pitoniówka</t>
   </si>
   <si>
-    <t>ZAK Krzeptowsk. VIII</t>
-  </si>
-  <si>
-    <t>ZAK Krzeptowsk. IX</t>
-  </si>
-  <si>
-    <t>ZAK Krzeptowsk. VII</t>
-  </si>
-  <si>
-    <t>ZAK Dom Chata 2 [F]</t>
-  </si>
-  <si>
-    <t>ZAK Dom Chata 4  [F]</t>
-  </si>
-  <si>
-    <t>ZAK Dom Chata 5  [F]</t>
-  </si>
-  <si>
-    <t>ZAK Dom Chata 7 [F]</t>
-  </si>
-  <si>
     <t>ZAK Dom Chata 8  [F]</t>
   </si>
   <si>
@@ -457,15 +424,21 @@
     <t>ZAK Za Cieszynianką 3 [F]</t>
   </si>
   <si>
-    <t>ZAK Dom Biatlon</t>
-  </si>
-  <si>
     <t>ZAK Szklane Domy II</t>
   </si>
   <si>
     <t>ZAK Za Cieszynianką 5</t>
   </si>
   <si>
+    <t>ZAK Zamoyskiego II</t>
+  </si>
+  <si>
+    <t>ZAK Nędzy Kubińca 3</t>
+  </si>
+  <si>
+    <t>ZAK Piaseckiego 18/4</t>
+  </si>
+  <si>
     <t>Zakopane</t>
   </si>
   <si>
@@ -491,9 +464,6 @@
   </si>
   <si>
     <t>Domy;Zakopane;Kościelisko;Zakopiańskie Chaty</t>
-  </si>
-  <si>
-    <t>Domy;Kościelisko</t>
   </si>
 </sst>
 </file>
@@ -851,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,10 +858,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -908,10 +878,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -928,10 +898,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -948,10 +918,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -959,19 +929,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>128451</v>
+        <v>128456</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -979,7 +949,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>128456</v>
+        <v>128457</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -988,10 +958,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -999,7 +969,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>128457</v>
+        <v>128458</v>
       </c>
       <c r="B8">
         <v>36</v>
@@ -1008,10 +978,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1019,19 +989,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>128458</v>
+        <v>128480</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1039,19 +1009,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>128480</v>
+        <v>128492</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1059,19 +1029,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>128492</v>
+        <v>128499</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1079,19 +1049,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>128499</v>
+        <v>128509</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1099,19 +1069,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>128509</v>
+        <v>128520</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1119,7 +1089,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>128520</v>
+        <v>128521</v>
       </c>
       <c r="B14">
         <v>84</v>
@@ -1128,10 +1098,10 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1139,19 +1109,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>128521</v>
+        <v>128523</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1159,19 +1129,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>128523</v>
+        <v>128528</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1179,19 +1149,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>128528</v>
+        <v>128545</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1199,7 +1169,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>128545</v>
+        <v>128548</v>
       </c>
       <c r="B18">
         <v>102</v>
@@ -1208,10 +1178,10 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1219,19 +1189,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>128548</v>
+        <v>128570</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1239,19 +1209,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>128570</v>
+        <v>128574</v>
       </c>
       <c r="B20">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1259,19 +1229,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>128574</v>
+        <v>128576</v>
       </c>
       <c r="B21">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1279,19 +1249,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>128576</v>
+        <v>128582</v>
       </c>
       <c r="B22">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1299,19 +1269,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>128582</v>
+        <v>128589</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1319,19 +1289,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>128589</v>
+        <v>128591</v>
       </c>
       <c r="B24">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1339,7 +1309,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>128591</v>
+        <v>128594</v>
       </c>
       <c r="B25">
         <v>137</v>
@@ -1348,10 +1318,10 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1359,19 +1329,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>128594</v>
+        <v>128599</v>
       </c>
       <c r="B26">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1379,19 +1349,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>128599</v>
+        <v>128608</v>
       </c>
       <c r="B27">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1399,19 +1369,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>128608</v>
+        <v>128609</v>
       </c>
       <c r="B28">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1419,19 +1389,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>128609</v>
+        <v>128610</v>
       </c>
       <c r="B29">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1439,19 +1409,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>128610</v>
+        <v>128613</v>
       </c>
       <c r="B30">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1459,19 +1429,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>128613</v>
+        <v>128616</v>
       </c>
       <c r="B31">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1479,7 +1449,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>128616</v>
+        <v>128618</v>
       </c>
       <c r="B32">
         <v>157</v>
@@ -1488,10 +1458,10 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1499,19 +1469,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>128618</v>
+        <v>128619</v>
       </c>
       <c r="B33">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1519,19 +1489,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>128619</v>
+        <v>128634</v>
       </c>
       <c r="B34">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1539,19 +1509,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>128634</v>
+        <v>128635</v>
       </c>
       <c r="B35">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1559,19 +1529,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>128635</v>
+        <v>128641</v>
       </c>
       <c r="B36">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1579,19 +1549,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>128641</v>
+        <v>128645</v>
       </c>
       <c r="B37">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1599,19 +1569,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>128645</v>
+        <v>128646</v>
       </c>
       <c r="B38">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1619,19 +1589,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>128646</v>
+        <v>128652</v>
       </c>
       <c r="B39">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
         <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1639,7 +1609,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>128652</v>
+        <v>128654</v>
       </c>
       <c r="B40">
         <v>181</v>
@@ -1648,10 +1618,10 @@
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1659,19 +1629,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>128654</v>
+        <v>128656</v>
       </c>
       <c r="B41">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1679,19 +1649,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>128656</v>
+        <v>128662</v>
       </c>
       <c r="B42">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
         <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1699,19 +1669,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>128662</v>
+        <v>128663</v>
       </c>
       <c r="B43">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
         <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1719,19 +1689,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>128663</v>
+        <v>128664</v>
       </c>
       <c r="B44">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1739,19 +1709,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>128664</v>
+        <v>128670</v>
       </c>
       <c r="B45">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1759,19 +1729,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>128670</v>
+        <v>128673</v>
       </c>
       <c r="B46">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
         <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1779,19 +1749,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>128673</v>
+        <v>128677</v>
       </c>
       <c r="B47">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1799,19 +1769,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>128677</v>
+        <v>128678</v>
       </c>
       <c r="B48">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1819,19 +1789,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>128678</v>
+        <v>128679</v>
       </c>
       <c r="B49">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1839,19 +1809,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>128679</v>
+        <v>128682</v>
       </c>
       <c r="B50">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
         <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1859,19 +1829,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>128682</v>
+        <v>128685</v>
       </c>
       <c r="B51">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s">
         <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1879,19 +1849,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>128685</v>
+        <v>128686</v>
       </c>
       <c r="B52">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1899,7 +1869,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>128686</v>
+        <v>128688</v>
       </c>
       <c r="B53">
         <v>207</v>
@@ -1908,10 +1878,10 @@
         <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1919,19 +1889,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>128688</v>
+        <v>128691</v>
       </c>
       <c r="B54">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1939,7 +1909,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>128691</v>
+        <v>128693</v>
       </c>
       <c r="B55">
         <v>212</v>
@@ -1948,10 +1918,10 @@
         <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1959,7 +1929,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>128693</v>
+        <v>128695</v>
       </c>
       <c r="B56">
         <v>214</v>
@@ -1968,10 +1938,10 @@
         <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1979,19 +1949,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>128695</v>
+        <v>128703</v>
       </c>
       <c r="B57">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
         <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -1999,19 +1969,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>128703</v>
+        <v>128705</v>
       </c>
       <c r="B58">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C58" t="s">
         <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2019,19 +1989,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>128704</v>
+        <v>128712</v>
       </c>
       <c r="B59">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2039,19 +2009,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>128705</v>
+        <v>128714</v>
       </c>
       <c r="B60">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C60" t="s">
         <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2059,19 +2029,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>128712</v>
+        <v>128717</v>
       </c>
       <c r="B61">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C61" t="s">
         <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2079,19 +2049,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>128714</v>
+        <v>128719</v>
       </c>
       <c r="B62">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
         <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2099,19 +2069,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>128717</v>
+        <v>128720</v>
       </c>
       <c r="B63">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2119,19 +2089,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>128719</v>
+        <v>128721</v>
       </c>
       <c r="B64">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2139,19 +2109,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>128720</v>
+        <v>128727</v>
       </c>
       <c r="B65">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C65" t="s">
         <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2159,19 +2129,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>128721</v>
+        <v>128731</v>
       </c>
       <c r="B66">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C66" t="s">
         <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2179,19 +2149,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>128727</v>
+        <v>128734</v>
       </c>
       <c r="B67">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C67" t="s">
         <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2199,19 +2169,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>128731</v>
+        <v>128737</v>
       </c>
       <c r="B68">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2219,7 +2189,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>128734</v>
+        <v>128738</v>
       </c>
       <c r="B69">
         <v>250</v>
@@ -2228,10 +2198,10 @@
         <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2239,19 +2209,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>128737</v>
+        <v>128742</v>
       </c>
       <c r="B70">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2259,19 +2229,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>128738</v>
+        <v>128743</v>
       </c>
       <c r="B71">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s">
         <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2279,19 +2249,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>128739</v>
+        <v>128744</v>
       </c>
       <c r="B72">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -2299,19 +2269,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>128742</v>
+        <v>128747</v>
       </c>
       <c r="B73">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C73" t="s">
         <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2319,19 +2289,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>128743</v>
+        <v>128750</v>
       </c>
       <c r="B74">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C74" t="s">
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -2339,19 +2309,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>128744</v>
+        <v>128751</v>
       </c>
       <c r="B75">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C75" t="s">
         <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2359,19 +2329,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>128747</v>
+        <v>128753</v>
       </c>
       <c r="B76">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
         <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2379,19 +2349,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>128750</v>
+        <v>128759</v>
       </c>
       <c r="B77">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
         <v>81</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2399,19 +2369,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>128751</v>
+        <v>128760</v>
       </c>
       <c r="B78">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
         <v>82</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2419,19 +2389,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>128753</v>
+        <v>128761</v>
       </c>
       <c r="B79">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C79" t="s">
         <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E79" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2439,19 +2409,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>128759</v>
+        <v>128762</v>
       </c>
       <c r="B80">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" t="s">
         <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2459,19 +2429,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>128760</v>
+        <v>128764</v>
       </c>
       <c r="B81">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s">
         <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E81" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2479,19 +2449,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>128761</v>
+        <v>128765</v>
       </c>
       <c r="B82">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C82" t="s">
         <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2499,19 +2469,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>128762</v>
+        <v>128767</v>
       </c>
       <c r="B83">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
         <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E83" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2519,19 +2489,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>128764</v>
+        <v>128770</v>
       </c>
       <c r="B84">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C84" t="s">
         <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2539,19 +2509,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>128765</v>
+        <v>128777</v>
       </c>
       <c r="B85">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2559,19 +2529,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>128766</v>
+        <v>128779</v>
       </c>
       <c r="B86">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s">
         <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E86" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -2579,19 +2549,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>128767</v>
+        <v>128780</v>
       </c>
       <c r="B87">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C87" t="s">
         <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -2599,19 +2569,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>128770</v>
+        <v>128789</v>
       </c>
       <c r="B88">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C88" t="s">
         <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -2619,19 +2589,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>128777</v>
+        <v>128791</v>
       </c>
       <c r="B89">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C89" t="s">
         <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -2639,19 +2609,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>128779</v>
+        <v>128793</v>
       </c>
       <c r="B90">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
         <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -2659,19 +2629,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>128780</v>
+        <v>128796</v>
       </c>
       <c r="B91">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s">
         <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2679,19 +2649,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>128789</v>
+        <v>128799</v>
       </c>
       <c r="B92">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C92" t="s">
         <v>96</v>
       </c>
       <c r="D92" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -2699,19 +2669,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>128791</v>
+        <v>128800</v>
       </c>
       <c r="B93">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C93" t="s">
         <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -2719,19 +2689,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>128793</v>
+        <v>128837</v>
       </c>
       <c r="B94">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C94" t="s">
         <v>98</v>
       </c>
       <c r="D94" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -2739,19 +2709,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>128796</v>
+        <v>128838</v>
       </c>
       <c r="B95">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C95" t="s">
         <v>99</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2759,19 +2729,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>128799</v>
+        <v>129422</v>
       </c>
       <c r="B96">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="C96" t="s">
         <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E96" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -2779,19 +2749,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>128800</v>
+        <v>129980</v>
       </c>
       <c r="B97">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="C97" t="s">
         <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2799,19 +2769,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>128837</v>
+        <v>129988</v>
       </c>
       <c r="B98">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="C98" t="s">
         <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -2819,19 +2789,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>128838</v>
+        <v>130018</v>
       </c>
       <c r="B99">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="C99" t="s">
         <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2839,19 +2809,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>129422</v>
+        <v>130019</v>
       </c>
       <c r="B100">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C100" t="s">
         <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2859,19 +2829,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>129980</v>
+        <v>130020</v>
       </c>
       <c r="B101">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C101" t="s">
         <v>105</v>
       </c>
       <c r="D101" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E101" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2879,19 +2849,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>129988</v>
+        <v>130021</v>
       </c>
       <c r="B102">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E102" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2899,19 +2869,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>130018</v>
+        <v>130022</v>
       </c>
       <c r="B103">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C103" t="s">
         <v>107</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E103" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -2919,19 +2889,19 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>130019</v>
+        <v>130023</v>
       </c>
       <c r="B104">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C104" t="s">
         <v>108</v>
       </c>
       <c r="D104" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E104" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -2939,19 +2909,19 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>130020</v>
+        <v>130024</v>
       </c>
       <c r="B105">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C105" t="s">
         <v>109</v>
       </c>
       <c r="D105" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E105" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -2959,19 +2929,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>130021</v>
+        <v>130025</v>
       </c>
       <c r="B106">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C106" t="s">
         <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E106" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -2979,19 +2949,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>130022</v>
+        <v>130026</v>
       </c>
       <c r="B107">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C107" t="s">
         <v>111</v>
       </c>
       <c r="D107" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E107" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -2999,19 +2969,19 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>130023</v>
+        <v>130027</v>
       </c>
       <c r="B108">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C108" t="s">
         <v>112</v>
       </c>
       <c r="D108" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E108" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -3019,19 +2989,19 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>130024</v>
+        <v>130028</v>
       </c>
       <c r="B109">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C109" t="s">
         <v>113</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E109" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -3039,19 +3009,19 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>130025</v>
+        <v>130029</v>
       </c>
       <c r="B110">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C110" t="s">
         <v>114</v>
       </c>
       <c r="D110" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E110" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3059,19 +3029,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>130026</v>
+        <v>130031</v>
       </c>
       <c r="B111">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C111" t="s">
         <v>115</v>
       </c>
       <c r="D111" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E111" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -3079,19 +3049,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>130027</v>
+        <v>130032</v>
       </c>
       <c r="B112">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C112" t="s">
         <v>116</v>
       </c>
       <c r="D112" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E112" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -3099,19 +3069,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>130028</v>
+        <v>130033</v>
       </c>
       <c r="B113">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C113" t="s">
         <v>117</v>
       </c>
       <c r="D113" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E113" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3119,19 +3089,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>130029</v>
+        <v>130034</v>
       </c>
       <c r="B114">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C114" t="s">
         <v>118</v>
       </c>
       <c r="D114" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E114" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -3139,19 +3109,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>130031</v>
+        <v>130035</v>
       </c>
       <c r="B115">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C115" t="s">
         <v>119</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E115" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3159,19 +3129,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>130032</v>
+        <v>130036</v>
       </c>
       <c r="B116">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C116" t="s">
         <v>120</v>
       </c>
       <c r="D116" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E116" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -3179,19 +3149,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>130033</v>
+        <v>130037</v>
       </c>
       <c r="B117">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C117" t="s">
         <v>121</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E117" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -3199,19 +3169,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>130034</v>
+        <v>130038</v>
       </c>
       <c r="B118">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C118" t="s">
         <v>122</v>
       </c>
       <c r="D118" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E118" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -3219,19 +3189,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>130035</v>
+        <v>130039</v>
       </c>
       <c r="B119">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C119" t="s">
         <v>123</v>
       </c>
       <c r="D119" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E119" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -3239,19 +3209,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>130036</v>
+        <v>130040</v>
       </c>
       <c r="B120">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C120" t="s">
         <v>124</v>
       </c>
       <c r="D120" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E120" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -3259,19 +3229,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>130037</v>
+        <v>130041</v>
       </c>
       <c r="B121">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C121" t="s">
         <v>125</v>
       </c>
       <c r="D121" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E121" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3279,19 +3249,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>130038</v>
+        <v>130042</v>
       </c>
       <c r="B122">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C122" t="s">
         <v>126</v>
       </c>
       <c r="D122" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E122" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -3299,19 +3269,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>130039</v>
+        <v>130043</v>
       </c>
       <c r="B123">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C123" t="s">
         <v>127</v>
       </c>
       <c r="D123" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E123" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -3319,19 +3289,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>130040</v>
+        <v>131243</v>
       </c>
       <c r="B124">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="C124" t="s">
         <v>128</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E124" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -3339,19 +3309,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>130041</v>
+        <v>131775</v>
       </c>
       <c r="B125">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="C125" t="s">
         <v>129</v>
       </c>
       <c r="D125" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E125" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -3359,19 +3329,19 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>130042</v>
+        <v>131782</v>
       </c>
       <c r="B126">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="C126" t="s">
         <v>130</v>
       </c>
       <c r="D126" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E126" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -3379,19 +3349,19 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>130043</v>
+        <v>131783</v>
       </c>
       <c r="B127">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="C127" t="s">
         <v>131</v>
       </c>
       <c r="D127" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E127" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -3399,19 +3369,19 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>131243</v>
+        <v>131784</v>
       </c>
       <c r="B128">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C128" t="s">
         <v>132</v>
       </c>
       <c r="D128" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E128" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -3419,19 +3389,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>131775</v>
+        <v>132837</v>
       </c>
       <c r="B129">
-        <v>417</v>
+        <v>507</v>
       </c>
       <c r="C129" t="s">
         <v>133</v>
       </c>
-      <c r="D129" t="s">
-        <v>150</v>
-      </c>
       <c r="E129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -3439,19 +3406,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>131782</v>
+        <v>133157</v>
       </c>
       <c r="B130">
-        <v>418</v>
+        <v>524</v>
       </c>
       <c r="C130" t="s">
         <v>134</v>
       </c>
       <c r="D130" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E130" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -3459,19 +3426,19 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>131783</v>
+        <v>133161</v>
       </c>
       <c r="B131">
-        <v>419</v>
+        <v>525</v>
       </c>
       <c r="C131" t="s">
         <v>135</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E131" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -3479,19 +3446,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>131784</v>
+        <v>135996</v>
       </c>
       <c r="B132">
-        <v>420</v>
+        <v>614</v>
       </c>
       <c r="C132" t="s">
         <v>136</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E132" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -3499,19 +3466,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>131785</v>
+        <v>136792</v>
       </c>
       <c r="B133">
-        <v>421</v>
+        <v>623</v>
       </c>
       <c r="C133" t="s">
         <v>137</v>
       </c>
       <c r="D133" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E133" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -3519,19 +3486,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>131787</v>
+        <v>139218</v>
       </c>
       <c r="B134">
-        <v>422</v>
+        <v>635</v>
       </c>
       <c r="C134" t="s">
         <v>138</v>
       </c>
       <c r="D134" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E134" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -3539,19 +3506,19 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>131788</v>
+        <v>139427</v>
       </c>
       <c r="B135">
-        <v>423</v>
+        <v>637</v>
       </c>
       <c r="C135" t="s">
         <v>139</v>
       </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E135" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -3559,201 +3526,21 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>132831</v>
+        <v>142556</v>
       </c>
       <c r="B136">
-        <v>517</v>
+        <v>653</v>
       </c>
       <c r="C136" t="s">
         <v>140</v>
       </c>
       <c r="D136" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E136" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>132833</v>
-      </c>
-      <c r="B137">
-        <v>518</v>
-      </c>
-      <c r="C137" t="s">
-        <v>141</v>
-      </c>
-      <c r="D137" t="s">
-        <v>151</v>
-      </c>
-      <c r="E137" t="s">
-        <v>158</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>132834</v>
-      </c>
-      <c r="B138">
-        <v>519</v>
-      </c>
-      <c r="C138" t="s">
-        <v>142</v>
-      </c>
-      <c r="D138" t="s">
-        <v>151</v>
-      </c>
-      <c r="E138" t="s">
-        <v>158</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>132836</v>
-      </c>
-      <c r="B139">
-        <v>520</v>
-      </c>
-      <c r="C139" t="s">
-        <v>143</v>
-      </c>
-      <c r="D139" t="s">
-        <v>151</v>
-      </c>
-      <c r="E139" t="s">
-        <v>158</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>132837</v>
-      </c>
-      <c r="B140">
-        <v>521</v>
-      </c>
-      <c r="C140" t="s">
-        <v>144</v>
-      </c>
-      <c r="D140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E140" t="s">
-        <v>158</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>133157</v>
-      </c>
-      <c r="B141">
-        <v>538</v>
-      </c>
-      <c r="C141" t="s">
-        <v>145</v>
-      </c>
-      <c r="D141" t="s">
-        <v>150</v>
-      </c>
-      <c r="E141" t="s">
-        <v>150</v>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>133161</v>
-      </c>
-      <c r="B142">
-        <v>539</v>
-      </c>
-      <c r="C142" t="s">
-        <v>146</v>
-      </c>
-      <c r="D142" t="s">
-        <v>150</v>
-      </c>
-      <c r="E142" t="s">
-        <v>150</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>134326</v>
-      </c>
-      <c r="B143">
-        <v>580</v>
-      </c>
-      <c r="C143" t="s">
-        <v>147</v>
-      </c>
-      <c r="D143" t="s">
-        <v>151</v>
-      </c>
-      <c r="E143" t="s">
-        <v>159</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>135996</v>
-      </c>
-      <c r="B144">
-        <v>629</v>
-      </c>
-      <c r="C144" t="s">
-        <v>148</v>
-      </c>
-      <c r="D144" t="s">
-        <v>150</v>
-      </c>
-      <c r="E144" t="s">
-        <v>150</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>136792</v>
-      </c>
-      <c r="B145">
-        <v>638</v>
-      </c>
-      <c r="C145" t="s">
-        <v>149</v>
-      </c>
-      <c r="D145" t="s">
-        <v>150</v>
-      </c>
-      <c r="E145" t="s">
-        <v>150</v>
-      </c>
-      <c r="F145">
         <v>1</v>
       </c>
     </row>
